--- a/Inference.xlsx
+++ b/Inference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satya/Desktop/take-home/FontClassifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBCFB23-F455-284C-9930-6BC4305608C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B53A6-CE1F-3D4F-B035-F202C64BBFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{1A14DA37-EDBB-AB49-82F2-7E0EC164BAED}"/>
+    <workbookView xWindow="-35240" yWindow="1500" windowWidth="28040" windowHeight="16360" xr2:uid="{1A14DA37-EDBB-AB49-82F2-7E0EC164BAED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>CPU</t>
   </si>
@@ -117,14 +117,39 @@
   </si>
   <si>
     <t>ViT</t>
+  </si>
+  <si>
+    <t>35.20s</t>
+  </si>
+  <si>
+    <t>327.3MB</t>
+  </si>
+  <si>
+    <t>3.74s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -152,9 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDE1EC8-6642-234D-BBB4-D2180D8DCF06}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,17 +510,17 @@
     <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -534,7 +562,7 @@
       <c r="C4" s="1">
         <v>0.86</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.8619</v>
       </c>
     </row>
@@ -584,7 +612,7 @@
       <c r="C10" s="1">
         <v>0.85060000000000002</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>0.85440000000000005</v>
       </c>
     </row>
@@ -634,11 +662,11 @@
       <c r="C16" s="1">
         <v>0.87649999999999995</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>0.88090000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -646,19 +674,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
       <c r="B22" t="s">
         <v>26</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Inference.xlsx
+++ b/Inference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satya/Desktop/take-home/FontClassifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B53A6-CE1F-3D4F-B035-F202C64BBFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B43EB3D-FB6B-6742-A79F-AA37ADB6BCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35240" yWindow="1500" windowWidth="28040" windowHeight="16360" xr2:uid="{1A14DA37-EDBB-AB49-82F2-7E0EC164BAED}"/>
+    <workbookView xWindow="-28040" yWindow="1480" windowWidth="28040" windowHeight="16360" xr2:uid="{1A14DA37-EDBB-AB49-82F2-7E0EC164BAED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>CPU</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>3.74s</t>
+  </si>
+  <si>
+    <t>Parameters</t>
   </si>
 </sst>
 </file>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDE1EC8-6642-234D-BBB4-D2180D8DCF06}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,13 +532,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,13 +546,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,13 +560,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>0.86</v>
+        <v>0.85060000000000002</v>
       </c>
       <c r="D4" s="3">
-        <v>0.8619</v>
+        <v>0.85440000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -571,7 +574,15 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>1507706</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -579,13 +590,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -593,13 +604,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -607,13 +618,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>0.85060000000000002</v>
+        <v>0.87649999999999995</v>
       </c>
       <c r="D10" s="3">
-        <v>0.85440000000000005</v>
+        <v>0.88090000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -621,7 +632,15 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>821130</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -629,13 +648,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -643,13 +662,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -657,13 +676,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
-        <v>0.87649999999999995</v>
+        <v>0.86</v>
       </c>
       <c r="D16" s="3">
-        <v>0.88090000000000002</v>
+        <v>0.8619</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -671,7 +690,15 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>11181642</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -713,6 +740,14 @@
       </c>
       <c r="B23" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>85806346</v>
       </c>
     </row>
   </sheetData>

--- a/Inference.xlsx
+++ b/Inference.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satya/Desktop/take-home/FontClassifier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satya/Desktop/take-home/FontClassifier/Font-Classifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B43EB3D-FB6B-6742-A79F-AA37ADB6BCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C5CEF-E01E-A148-A7AF-5EBE03CE52EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28040" yWindow="1480" windowWidth="28040" windowHeight="16360" xr2:uid="{1A14DA37-EDBB-AB49-82F2-7E0EC164BAED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1A14DA37-EDBB-AB49-82F2-7E0EC164BAED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>CPU</t>
   </si>
@@ -129,6 +129,45 @@
   </si>
   <si>
     <t>Parameters</t>
+  </si>
+  <si>
+    <t>Font Class</t>
+  </si>
+  <si>
+    <t>CNN Baseline</t>
+  </si>
+  <si>
+    <t>Resnet18 Modified</t>
+  </si>
+  <si>
+    <t>AguafinaScript</t>
+  </si>
+  <si>
+    <t>AlexBrush</t>
+  </si>
+  <si>
+    <t>Allura</t>
+  </si>
+  <si>
+    <t>Canterbury</t>
+  </si>
+  <si>
+    <t>GreatVibes</t>
+  </si>
+  <si>
+    <t>Holligate Signature</t>
+  </si>
+  <si>
+    <t>I Love Glitter</t>
+  </si>
+  <si>
+    <t>James Fajardo</t>
+  </si>
+  <si>
+    <t>OpenSans</t>
+  </si>
+  <si>
+    <t>alsscrp</t>
   </si>
 </sst>
 </file>
@@ -180,12 +219,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDE1EC8-6642-234D-BBB4-D2180D8DCF06}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,6 +553,7 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -685,7 +728,7 @@
         <v>0.8619</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -693,7 +736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -701,7 +744,7 @@
         <v>11181642</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -712,7 +755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -723,7 +766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -734,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -742,12 +785,199 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24">
         <v>85806346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>74.28</v>
+      </c>
+      <c r="C28">
+        <v>88</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>84.37</v>
+      </c>
+      <c r="C29">
+        <v>91.3</v>
+      </c>
+      <c r="D29">
+        <v>97.05</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>95.45</v>
+      </c>
+      <c r="C30">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>42.3</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>96</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>73.91</v>
+      </c>
+      <c r="C32">
+        <v>90</v>
+      </c>
+      <c r="D32">
+        <v>92.59</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>86.66</v>
+      </c>
+      <c r="C33">
+        <v>96</v>
+      </c>
+      <c r="D33">
+        <v>95.83</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>85.18</v>
+      </c>
+      <c r="C34">
+        <v>80.64</v>
+      </c>
+      <c r="D34">
+        <v>92.3</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>87.09</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>90.32</v>
+      </c>
+      <c r="D37">
+        <v>90</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
